--- a/tests/indicators/s-z/Tema/Tema.Calc.xlsx
+++ b/tests/indicators/s-z/Tema/Tema.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40C9CA-9DA3-4DAA-962B-9B6C1BDE0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACC41D-9EB4-43E8-ABC8-B01A6DD2BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMA" sheetId="1" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="11" bestFit="1" customWidth="1"/>
